--- a/22 задание/Лист Microsoft Excel.xlsx
+++ b/22 задание/Лист Microsoft Excel.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="(№ 7570) (ЕГЭ-2024) " sheetId="1" r:id="rId1"/>
     <sheet name="(№ 7570) (ЕГЭ-2024)" sheetId="2" r:id="rId2"/>
     <sheet name="Дополнение 2" sheetId="3" r:id="rId3"/>
     <sheet name="(№ 7491) (ЕГЭ-2024) " sheetId="4" r:id="rId4"/>
+    <sheet name="(№ 7569) (ЕГЭ-2024)" sheetId="5" r:id="rId5"/>
+    <sheet name="(№ 6881) (PRO100-ЕГЭ)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Дополнение 2'!$A$1:$C$14</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -50,17 +52,34 @@
   <si>
     <t>ID процесса(-ов) A</t>
   </si>
+  <si>
+    <t>ID процессов A</t>
+  </si>
+  <si>
+    <t>1; 2</t>
+  </si>
+  <si>
+    <t>4; 6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,6 +92,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -117,10 +145,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -132,23 +161,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4813,6 +4863,3026 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432538" y="952500"/>
+          <a:ext cx="4476750" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>101</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432538" y="1143000"/>
+          <a:ext cx="945174" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>102</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6960577" y="967154"/>
+          <a:ext cx="307731" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>103</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>315057</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7282961" y="1348154"/>
+          <a:ext cx="3524250" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>104</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21979</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7290287" y="967155"/>
+          <a:ext cx="4169020" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>105</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21979</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7290287" y="1143000"/>
+          <a:ext cx="1589943" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>106</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179999</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8887557" y="1142999"/>
+          <a:ext cx="615462" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>107</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4154</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11473961" y="967154"/>
+          <a:ext cx="307731" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>108</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>187327</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11789019" y="959827"/>
+          <a:ext cx="615462" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>109</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2432538" y="2667000"/>
+          <a:ext cx="2564424" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>110</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7268308" y="1553308"/>
+          <a:ext cx="5121520" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>111</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Прямоугольник 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5399942" y="1743808"/>
+          <a:ext cx="2557097" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>112</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Прямоугольник 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7957039" y="1743807"/>
+          <a:ext cx="4476750" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>113</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Прямая со стрелкой 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6909288" y="1042500"/>
+          <a:ext cx="51289" cy="14654"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3377712" y="1057154"/>
+          <a:ext cx="3582865" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Прямая со стрелкой 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3377712" y="1233000"/>
+          <a:ext cx="3905249" cy="205154"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21979</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Прямая со стрелкой 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7268308" y="1057154"/>
+          <a:ext cx="21979" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21979</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7268308" y="1057154"/>
+          <a:ext cx="21979" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7326</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Прямая со стрелкой 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8880230" y="1232999"/>
+          <a:ext cx="7327" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>322384</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Прямая со стрелкой 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11459307" y="1057154"/>
+          <a:ext cx="14654" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>300404</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89999</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Прямая со стрелкой 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9503019" y="1057154"/>
+          <a:ext cx="1970942" cy="175845"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104654</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Прямая со стрелкой 49"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11781692" y="1049827"/>
+          <a:ext cx="7327" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Прямая со стрелкой 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4996962" y="1833808"/>
+          <a:ext cx="402980" cy="923192"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Прямая со стрелкой 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4996962" y="1643308"/>
+          <a:ext cx="2271346" cy="1113692"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>43962</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119308</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Прямая со стрелкой 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7957039" y="1833807"/>
+          <a:ext cx="0" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2718288" y="952500"/>
+          <a:ext cx="1025770" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13139</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256191</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3816570" y="1143000"/>
+          <a:ext cx="781707" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617983" y="959069"/>
+          <a:ext cx="1333500" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6568</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6568</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7580585" y="965638"/>
+          <a:ext cx="1885293" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5958052" y="1149570"/>
+          <a:ext cx="1609396" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>6568</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>186569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9485586" y="1149569"/>
+          <a:ext cx="518948" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10017673" y="972207"/>
+          <a:ext cx="1333500" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>13139</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11357742" y="978776"/>
+          <a:ext cx="525517" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>256190</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>186569</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11889828" y="1340069"/>
+          <a:ext cx="1865586" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15391087" y="1136431"/>
+          <a:ext cx="2141482" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19706</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>262757</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2638</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13788258" y="1537138"/>
+          <a:ext cx="1589689" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>26275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>183931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>243050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>173431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17565413" y="1136431"/>
+          <a:ext cx="1563413" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>234462</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Прямая со стрелкой 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3768565" y="1042500"/>
+          <a:ext cx="849418" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>256191</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Прямая со стрелкой 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4598277" y="1049069"/>
+          <a:ext cx="19706" cy="183931"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6568</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Прямая со стрелкой 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951483" y="1049069"/>
+          <a:ext cx="1629102" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Прямая со стрелкой 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951483" y="1049069"/>
+          <a:ext cx="6569" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>262758</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Прямая со стрелкой 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7567448" y="1239569"/>
+          <a:ext cx="1918138" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6568</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109707</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Прямая со стрелкой 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9465878" y="1055638"/>
+          <a:ext cx="551795" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>6568</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Прямая со стрелкой 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10004534" y="1062207"/>
+          <a:ext cx="13139" cy="177362"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>6570</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>13139</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>116276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Прямая со стрелкой 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11351173" y="1062207"/>
+          <a:ext cx="6569" cy="6569"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>256190</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19706</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Прямая со стрелкой 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13755414" y="1430069"/>
+          <a:ext cx="32844" cy="197069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>26275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83431</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Прямая со стрелкой 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17532569" y="1226431"/>
+          <a:ext cx="32844" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -6631,7 +9701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
@@ -7619,4 +10689,2790 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="65" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6">
+        <v>15</v>
+      </c>
+      <c r="T1" s="9">
+        <v>16</v>
+      </c>
+      <c r="U1" s="9">
+        <v>17</v>
+      </c>
+      <c r="V1" s="9">
+        <v>18</v>
+      </c>
+      <c r="W1" s="9">
+        <v>19</v>
+      </c>
+      <c r="X1" s="9">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="9">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="9">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="6">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="6">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="6">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="6">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="6">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="6">
+        <v>42</v>
+      </c>
+      <c r="AU1" s="6">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="6">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="6">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="6">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="6">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="6">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="6">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="6">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="6">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="6">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="6">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="6">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="6">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="6">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="6">
+        <v>58</v>
+      </c>
+      <c r="BK1" s="6">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="6">
+        <v>60</v>
+      </c>
+      <c r="BM1" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>101</v>
+      </c>
+      <c r="B2" s="12">
+        <v>14</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>102</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>103</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>104</v>
+      </c>
+      <c r="B5" s="14">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12">
+        <v>102</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>105</v>
+      </c>
+      <c r="B6" s="13">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12">
+        <v>103</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>106</v>
+      </c>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <v>103</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>107</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <v>106</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>108</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>109</v>
+      </c>
+      <c r="B10" s="12">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>108</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>110</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>111</v>
+      </c>
+      <c r="B12" s="12">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12">
+        <v>110</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>112</v>
+      </c>
+      <c r="B13" s="12">
+        <v>8</v>
+      </c>
+      <c r="C13" s="12">
+        <v>110</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>113</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>112</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+    </row>
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CN14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="92" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:92" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="6">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="6">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="6">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="6">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="6">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="6">
+        <v>42</v>
+      </c>
+      <c r="AU1" s="6">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="6">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="6">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="6">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="6">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="6">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="6">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="6">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="6">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="6">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="6">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="6">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="6">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="6">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="6">
+        <v>58</v>
+      </c>
+      <c r="BK1" s="6">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="6">
+        <v>60</v>
+      </c>
+      <c r="BM1" s="6">
+        <v>61</v>
+      </c>
+      <c r="BN1" s="6">
+        <v>62</v>
+      </c>
+      <c r="BO1" s="6">
+        <v>63</v>
+      </c>
+      <c r="BP1" s="6">
+        <v>64</v>
+      </c>
+      <c r="BQ1" s="6">
+        <v>65</v>
+      </c>
+      <c r="BR1" s="6">
+        <v>66</v>
+      </c>
+      <c r="BS1" s="6">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="6">
+        <v>68</v>
+      </c>
+      <c r="BU1" s="6">
+        <v>69</v>
+      </c>
+      <c r="BV1" s="6">
+        <v>70</v>
+      </c>
+      <c r="BW1" s="6">
+        <v>71</v>
+      </c>
+      <c r="BX1" s="6">
+        <v>72</v>
+      </c>
+      <c r="BY1" s="6">
+        <v>73</v>
+      </c>
+      <c r="BZ1" s="6">
+        <v>74</v>
+      </c>
+      <c r="CA1" s="6">
+        <v>75</v>
+      </c>
+      <c r="CB1" s="6">
+        <v>76</v>
+      </c>
+      <c r="CC1" s="6">
+        <v>77</v>
+      </c>
+      <c r="CD1" s="6">
+        <v>78</v>
+      </c>
+      <c r="CE1" s="6">
+        <v>79</v>
+      </c>
+      <c r="CF1" s="6">
+        <v>80</v>
+      </c>
+      <c r="CG1" s="6">
+        <v>81</v>
+      </c>
+      <c r="CH1" s="6">
+        <v>82</v>
+      </c>
+      <c r="CI1" s="6">
+        <v>83</v>
+      </c>
+      <c r="CJ1" s="6">
+        <v>84</v>
+      </c>
+      <c r="CK1" s="6">
+        <v>85</v>
+      </c>
+      <c r="CL1" s="6">
+        <v>86</v>
+      </c>
+      <c r="CM1" s="6">
+        <v>87</v>
+      </c>
+      <c r="CN1" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>4</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
+      <c r="CL3" s="6"/>
+      <c r="CM3" s="6"/>
+      <c r="CN3" s="6"/>
+    </row>
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>5</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
+      <c r="CL4" s="6"/>
+      <c r="CM4" s="6"/>
+      <c r="CN4" s="6"/>
+    </row>
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>7</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
+      <c r="CL5" s="6"/>
+      <c r="CM5" s="6"/>
+      <c r="CN5" s="6"/>
+    </row>
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+      <c r="BO6" s="6"/>
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="6"/>
+      <c r="BV6" s="6"/>
+      <c r="BW6" s="6"/>
+      <c r="BX6" s="6"/>
+      <c r="BY6" s="6"/>
+      <c r="BZ6" s="6"/>
+      <c r="CA6" s="6"/>
+      <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
+      <c r="CL6" s="6"/>
+      <c r="CM6" s="6"/>
+      <c r="CN6" s="6"/>
+    </row>
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
+      <c r="CL7" s="6"/>
+      <c r="CM7" s="6"/>
+      <c r="CN7" s="6"/>
+    </row>
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="6"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="6"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="6"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="6"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="6"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="6"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="6"/>
+      <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="6"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
+      <c r="CL8" s="6"/>
+      <c r="CM8" s="6"/>
+      <c r="CN8" s="6"/>
+    </row>
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="6"/>
+      <c r="CK9" s="6"/>
+      <c r="CL9" s="6"/>
+      <c r="CM9" s="6"/>
+      <c r="CN9" s="6"/>
+    </row>
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="6"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="6"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="6"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="6"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="6"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="6"/>
+      <c r="BZ10" s="6"/>
+      <c r="CA10" s="6"/>
+      <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="6"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="6"/>
+      <c r="CK10" s="6"/>
+      <c r="CL10" s="6"/>
+      <c r="CM10" s="6"/>
+      <c r="CN10" s="6"/>
+    </row>
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="6"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="6"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="6"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="6"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="6"/>
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="6"/>
+      <c r="CH11" s="6"/>
+      <c r="CI11" s="6"/>
+      <c r="CJ11" s="6"/>
+      <c r="CK11" s="6"/>
+      <c r="CL11" s="6"/>
+      <c r="CM11" s="6"/>
+      <c r="CN11" s="6"/>
+    </row>
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16">
+        <v>9</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="6"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="6"/>
+      <c r="BR12" s="6"/>
+      <c r="BS12" s="6"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="6"/>
+      <c r="BV12" s="6"/>
+      <c r="BW12" s="6"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="6"/>
+      <c r="BZ12" s="6"/>
+      <c r="CA12" s="6"/>
+      <c r="CB12" s="6"/>
+      <c r="CC12" s="6"/>
+      <c r="CD12" s="6"/>
+      <c r="CE12" s="6"/>
+      <c r="CF12" s="6"/>
+      <c r="CG12" s="6"/>
+      <c r="CH12" s="6"/>
+      <c r="CI12" s="6"/>
+      <c r="CJ12" s="6"/>
+      <c r="CK12" s="6"/>
+      <c r="CL12" s="6"/>
+      <c r="CM12" s="6"/>
+      <c r="CN12" s="6"/>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="6"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="6"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="6"/>
+      <c r="BT13" s="6"/>
+      <c r="BU13" s="6"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="6"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="6"/>
+      <c r="BZ13" s="6"/>
+      <c r="CA13" s="6"/>
+      <c r="CB13" s="6"/>
+      <c r="CC13" s="6"/>
+      <c r="CD13" s="6"/>
+      <c r="CE13" s="6"/>
+      <c r="CF13" s="6"/>
+      <c r="CG13" s="6"/>
+      <c r="CH13" s="6"/>
+      <c r="CI13" s="6"/>
+      <c r="CJ13" s="6"/>
+      <c r="CK13" s="6"/>
+      <c r="CL13" s="6"/>
+      <c r="CM13" s="6"/>
+      <c r="CN13" s="6"/>
+    </row>
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+      <c r="BN14" s="6"/>
+      <c r="BO14" s="6"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="6"/>
+      <c r="BT14" s="6"/>
+      <c r="BU14" s="6"/>
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="6"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="6"/>
+      <c r="BZ14" s="6"/>
+      <c r="CA14" s="6"/>
+      <c r="CB14" s="6"/>
+      <c r="CC14" s="6"/>
+      <c r="CD14" s="6"/>
+      <c r="CE14" s="6"/>
+      <c r="CF14" s="6"/>
+      <c r="CG14" s="6"/>
+      <c r="CH14" s="6"/>
+      <c r="CI14" s="6"/>
+      <c r="CJ14" s="6"/>
+      <c r="CK14" s="6"/>
+      <c r="CL14" s="6"/>
+      <c r="CM14" s="6"/>
+      <c r="CN14" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/22 задание/Лист Microsoft Excel.xlsx
+++ b/22 задание/Лист Microsoft Excel.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="(№ 7570) (ЕГЭ-2024) " sheetId="1" r:id="rId1"/>
+    <sheet name="(№ 7624) (Демо-2025) " sheetId="1" r:id="rId1"/>
     <sheet name="(№ 7570) (ЕГЭ-2024)" sheetId="2" r:id="rId2"/>
     <sheet name="Дополнение 2" sheetId="3" r:id="rId3"/>
     <sheet name="(№ 7491) (ЕГЭ-2024) " sheetId="4" r:id="rId4"/>
     <sheet name="(№ 7569) (ЕГЭ-2024)" sheetId="5" r:id="rId5"/>
     <sheet name="(№ 6881) (PRO100-ЕГЭ)" sheetId="6" r:id="rId6"/>
+    <sheet name="(№ 7801) " sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Дополнение 2'!$A$1:$C$14</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>ID процесса B</t>
   </si>
@@ -60,6 +61,18 @@
   </si>
   <si>
     <t>4; 6</t>
+  </si>
+  <si>
+    <t>Время выполнения процесса (мс)</t>
+  </si>
+  <si>
+    <t>ID поставщиков данных</t>
+  </si>
+  <si>
+    <t>103; 107</t>
+  </si>
+  <si>
+    <t>109; 112</t>
   </si>
 </sst>
 </file>
@@ -7883,6 +7896,1933 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="952500"/>
+          <a:ext cx="5812971" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>101</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="1143000"/>
+          <a:ext cx="4942114" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>102</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>282993</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>13437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>239450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8399950" y="965937"/>
+          <a:ext cx="2341848" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>103</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>252445</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10802078" y="968030"/>
+          <a:ext cx="4425324" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>104</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438401" y="1905000"/>
+          <a:ext cx="4963886" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>106</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>28110</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>284442</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15163335" y="952863"/>
+          <a:ext cx="1732707" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>105</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438401" y="2095500"/>
+          <a:ext cx="4087586" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>107</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>250373</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6626088" y="2095500"/>
+          <a:ext cx="2039415" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>108</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>159440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>250373</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>148940</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="2826440"/>
+          <a:ext cx="5860598" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>109</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>259896</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>181242</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="1906242"/>
+          <a:ext cx="4384221" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>110</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>274864</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>151425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8658225" y="1685925"/>
+          <a:ext cx="3208564" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>111</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887201" y="2105025"/>
+          <a:ext cx="2027464" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>112</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>289832</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Прямоугольник 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11915775" y="1714500"/>
+          <a:ext cx="2623457" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>113</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>170475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Прямоугольник 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13963651" y="2085975"/>
+          <a:ext cx="4105275" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>114</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>14969</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Прямоугольник 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13401676" y="1152525"/>
+          <a:ext cx="1748518" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>115</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>251732</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>189525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Прямоугольник 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14535150" y="2486025"/>
+          <a:ext cx="4690382" cy="180000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>116</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>282993</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Прямая со стрелкой 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7461920" y="1055937"/>
+          <a:ext cx="938030" cy="177063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>282993</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103437</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Прямая со стрелкой 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8345557" y="1042500"/>
+          <a:ext cx="54393" cy="13437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>239450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1556</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Прямая со стрелкой 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10741798" y="1055937"/>
+          <a:ext cx="60280" cy="2093"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>252445</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>28110</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105530</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Прямая со стрелкой 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15092395" y="1042863"/>
+          <a:ext cx="70940" cy="15167"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Прямая со стрелкой 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6594614" y="2185500"/>
+          <a:ext cx="31474" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>261258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91242</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7424058" y="1995000"/>
+          <a:ext cx="43542" cy="1242"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Прямая со стрелкой 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402285" y="1233000"/>
+          <a:ext cx="1255940" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>250373</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Прямая со стрелкой 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8594273" y="2185500"/>
+          <a:ext cx="3292928" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>239450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>103437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая со стрелкой 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10650275" y="1055937"/>
+          <a:ext cx="1265500" cy="748563"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Прямая со стрелкой 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6543676" y="1804500"/>
+          <a:ext cx="5372099" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Прямая со стрелкой 62"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402285" y="1233000"/>
+          <a:ext cx="6561366" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Прямая со стрелкой 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8277225" y="1042500"/>
+          <a:ext cx="5124451" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>250373</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Прямая со стрелкой 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13318673" y="2576025"/>
+          <a:ext cx="1216477" cy="340415"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>255815</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Прямая со стрелкой 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13914665" y="2195025"/>
+          <a:ext cx="620485" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -8149,7 +10089,7 @@
   <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L13" sqref="A13:L14"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11907,7 +13847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -13475,4 +15415,1516 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BN19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX16" sqref="A16:AX16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="66" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6">
+        <v>4</v>
+      </c>
+      <c r="I1" s="6">
+        <v>5</v>
+      </c>
+      <c r="J1" s="6">
+        <v>6</v>
+      </c>
+      <c r="K1" s="6">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6">
+        <v>8</v>
+      </c>
+      <c r="M1" s="6">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6">
+        <v>10</v>
+      </c>
+      <c r="O1" s="6">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>13</v>
+      </c>
+      <c r="R1" s="6">
+        <v>14</v>
+      </c>
+      <c r="S1" s="6">
+        <v>15</v>
+      </c>
+      <c r="T1" s="6">
+        <v>16</v>
+      </c>
+      <c r="U1" s="6">
+        <v>17</v>
+      </c>
+      <c r="V1" s="6">
+        <v>18</v>
+      </c>
+      <c r="W1" s="6">
+        <v>19</v>
+      </c>
+      <c r="X1" s="6">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="6">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="6">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="6">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="6">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="6">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="6">
+        <v>42</v>
+      </c>
+      <c r="AU1" s="6">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="6">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="6">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="6">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="6">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="6">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="6">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="6">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="6">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="6">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="6">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="6">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="6">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="6">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="6">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="6">
+        <v>58</v>
+      </c>
+      <c r="BK1" s="6">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="6">
+        <v>60</v>
+      </c>
+      <c r="BM1" s="6">
+        <v>61</v>
+      </c>
+      <c r="BN1" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>103</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="6"/>
+      <c r="BA5" s="6"/>
+      <c r="BB5" s="6"/>
+      <c r="BC5" s="6"/>
+      <c r="BD5" s="6"/>
+      <c r="BE5" s="6"/>
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="6"/>
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6"/>
+      <c r="BL5" s="6"/>
+      <c r="BM5" s="6"/>
+      <c r="BN5" s="6"/>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>104</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="6"/>
+      <c r="BA6" s="6"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="6"/>
+      <c r="BD6" s="6"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="6"/>
+      <c r="BG6" s="6"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="6"/>
+      <c r="BJ6" s="6"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="6"/>
+      <c r="BM6" s="6"/>
+      <c r="BN6" s="6"/>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="6"/>
+      <c r="BA7" s="6"/>
+      <c r="BB7" s="6"/>
+      <c r="BC7" s="6"/>
+      <c r="BD7" s="6"/>
+      <c r="BE7" s="6"/>
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="6"/>
+      <c r="BI7" s="6"/>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6"/>
+      <c r="BL7" s="6"/>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="6"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="6"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="6"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="6"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="6"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="6"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="6"/>
+      <c r="BN8" s="6"/>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>107</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="6"/>
+      <c r="AN9" s="6"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="6"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="6"/>
+      <c r="AT9" s="6"/>
+      <c r="AU9" s="6"/>
+      <c r="AV9" s="6"/>
+      <c r="AW9" s="6"/>
+      <c r="AX9" s="6"/>
+      <c r="AY9" s="6"/>
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="6"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="6"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="6"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="6"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="6"/>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="6"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="6"/>
+      <c r="AT10" s="6"/>
+      <c r="AU10" s="6"/>
+      <c r="AV10" s="6"/>
+      <c r="AW10" s="6"/>
+      <c r="AX10" s="6"/>
+      <c r="AY10" s="6"/>
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="6"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="6"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="6"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="6"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="6"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="6"/>
+      <c r="BN10" s="6"/>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>106</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="6"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="6"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="6"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="6"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="6"/>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>102</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="6"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
+      <c r="AT12" s="6"/>
+      <c r="AU12" s="6"/>
+      <c r="AV12" s="6"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+      <c r="AY12" s="6"/>
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="6"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="6"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="6"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="6"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="6"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="6"/>
+      <c r="BN12" s="6"/>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="6"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="6"/>
+      <c r="AT13" s="6"/>
+      <c r="AU13" s="6"/>
+      <c r="AV13" s="6"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+      <c r="AY13" s="6"/>
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="6"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="6"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="6"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="6"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="6"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="6"/>
+      <c r="BN13" s="6"/>
+    </row>
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="6"/>
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="6"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="6"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="6"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="6"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="6"/>
+      <c r="BN14" s="6"/>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>114</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="6"/>
+      <c r="AN15" s="6"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="6"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="6"/>
+      <c r="AT15" s="6"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="6"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="6"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="6"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="6"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="6"/>
+      <c r="BN15" s="6"/>
+    </row>
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>115</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>101</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="6"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="6"/>
+      <c r="AT16" s="6"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="6"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="6"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="6"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="6"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="6"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="6"/>
+      <c r="BN16" s="6"/>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>116</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="6"/>
+      <c r="AO17" s="6"/>
+      <c r="AP17" s="6"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="6"/>
+      <c r="AT17" s="6"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="6"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="6"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="6"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="6"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="6"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="6"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="6"/>
+      <c r="BN17" s="6"/>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+      <c r="AO18" s="6"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="6"/>
+      <c r="BC18" s="6"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="6"/>
+      <c r="BJ18" s="6"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="6"/>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="6"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="6"/>
+      <c r="BB19" s="6"/>
+      <c r="BC19" s="6"/>
+      <c r="BD19" s="6"/>
+      <c r="BE19" s="6"/>
+      <c r="BF19" s="6"/>
+      <c r="BG19" s="6"/>
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BJ19" s="6"/>
+      <c r="BK19" s="6"/>
+      <c r="BL19" s="6"/>
+      <c r="BM19" s="6"/>
+      <c r="BN19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/22 задание/Лист Microsoft Excel.xlsx
+++ b/22 задание/Лист Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="(№ 7624) (Демо-2025) " sheetId="1" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10089,7 +10089,7 @@
   <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10420,7 +10420,7 @@
   <dimension ref="A1:BC14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10477,28 +10477,28 @@
       <c r="Q1" s="6">
         <v>13</v>
       </c>
-      <c r="R1" s="9">
+      <c r="R1" s="8">
         <v>14</v>
       </c>
-      <c r="S1" s="9">
+      <c r="S1" s="8">
         <v>15</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="8">
         <v>16</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="8">
         <v>17</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="8">
         <v>18</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="8">
         <v>19</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="8">
         <v>20</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="8">
         <v>21</v>
       </c>
       <c r="Z1" s="6">
@@ -10723,7 +10723,7 @@
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
@@ -10785,7 +10785,7 @@
       <c r="B5" s="7">
         <v>12</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="18">
         <v>102</v>
       </c>
       <c r="E5" s="6"/>
@@ -10847,7 +10847,7 @@
       <c r="B6" s="7">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="18">
         <v>103</v>
       </c>
       <c r="E6" s="6"/>
@@ -10909,7 +10909,7 @@
       <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="18">
         <v>103</v>
       </c>
       <c r="E7" s="6"/>
@@ -10971,7 +10971,7 @@
       <c r="B8" s="7">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>106</v>
       </c>
       <c r="E8" s="6"/>
@@ -11033,7 +11033,7 @@
       <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="6"/>
@@ -11095,7 +11095,7 @@
       <c r="B10" s="7">
         <v>2</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="18">
         <v>108</v>
       </c>
       <c r="E10" s="6"/>
@@ -11641,8 +11641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11652,13 +11652,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6">
@@ -12022,34 +12022,34 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="9">
+      <c r="V5" s="8">
         <v>1</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="8">
         <v>2</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="8">
         <v>3</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="8">
         <v>4</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="8">
         <v>5</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="8">
         <v>6</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="8">
         <v>7</v>
       </c>
-      <c r="AC5" s="9">
+      <c r="AC5" s="8">
         <v>8</v>
       </c>
-      <c r="AD5" s="9">
+      <c r="AD5" s="8">
         <v>9</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AE5" s="8">
         <v>10</v>
       </c>
       <c r="AF5" s="6"/>
@@ -12635,8 +12635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1:Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12645,13 +12645,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6">
@@ -12699,25 +12699,25 @@
       <c r="S1" s="6">
         <v>15</v>
       </c>
-      <c r="T1" s="9">
+      <c r="T1" s="8">
         <v>16</v>
       </c>
-      <c r="U1" s="9">
+      <c r="U1" s="8">
         <v>17</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1" s="8">
         <v>18</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1" s="8">
         <v>19</v>
       </c>
-      <c r="X1" s="9">
+      <c r="X1" s="8">
         <v>20</v>
       </c>
-      <c r="Y1" s="9">
+      <c r="Y1" s="8">
         <v>21</v>
       </c>
-      <c r="Z1" s="9">
+      <c r="Z1" s="8">
         <v>22</v>
       </c>
       <c r="AA1" s="6">
@@ -12839,13 +12839,13 @@
       </c>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>101</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>14</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
       <c r="E2" s="6"/>
@@ -12911,13 +12911,13 @@
       <c r="BM2" s="6"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>102</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="6"/>
@@ -12983,13 +12983,13 @@
       <c r="BM3" s="6"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>103</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
@@ -13055,13 +13055,13 @@
       <c r="BM4" s="6"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>104</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>11</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>102</v>
       </c>
       <c r="E5" s="6"/>
@@ -13127,13 +13127,13 @@
       <c r="BM5" s="6"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>105</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>13</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>103</v>
       </c>
       <c r="E6" s="6"/>
@@ -13199,13 +13199,13 @@
       <c r="BM6" s="6"/>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>106</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>103</v>
       </c>
       <c r="E7" s="6"/>
@@ -13271,13 +13271,13 @@
       <c r="BM7" s="6"/>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>107</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>106</v>
       </c>
       <c r="E8" s="6"/>
@@ -13343,13 +13343,13 @@
       <c r="BM8" s="6"/>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>108</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="6"/>
@@ -13415,13 +13415,13 @@
       <c r="BM9" s="6"/>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>109</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>108</v>
       </c>
       <c r="E10" s="6"/>
@@ -13487,13 +13487,13 @@
       <c r="BM10" s="6"/>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>110</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>0</v>
       </c>
       <c r="E11" s="6"/>
@@ -13559,13 +13559,13 @@
       <c r="BM11" s="6"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>111</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>16</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>110</v>
       </c>
       <c r="E12" s="6"/>
@@ -13631,13 +13631,13 @@
       <c r="BM12" s="6"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>112</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>8</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>110</v>
       </c>
       <c r="E13" s="6"/>
@@ -13703,13 +13703,13 @@
       <c r="BM13" s="6"/>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>113</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>112</v>
       </c>
       <c r="E14" s="6"/>
@@ -13847,8 +13847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CN14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BB10" sqref="D10:BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13858,13 +13858,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="6">
@@ -14133,13 +14133,13 @@
       </c>
     </row>
     <row r="2" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>4</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>0</v>
       </c>
       <c r="E2" s="6"/>
@@ -14232,13 +14232,13 @@
       <c r="CN2" s="6"/>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>3</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>0</v>
       </c>
       <c r="E3" s="6"/>
@@ -14331,13 +14331,13 @@
       <c r="CN3" s="6"/>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>5</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6"/>
@@ -14430,13 +14430,13 @@
       <c r="CN4" s="6"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>7</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
@@ -14529,13 +14529,13 @@
       <c r="CN5" s="6"/>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>6</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
@@ -14628,13 +14628,13 @@
       <c r="CN6" s="6"/>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>5</v>
       </c>
       <c r="E7" s="6"/>
@@ -14727,13 +14727,13 @@
       <c r="CN7" s="6"/>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="6"/>
@@ -14826,13 +14826,13 @@
       <c r="CN8" s="6"/>
     </row>
     <row r="9" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>7</v>
       </c>
       <c r="E9" s="6"/>
@@ -14925,16 +14925,16 @@
       <c r="CN9" s="6"/>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>0</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -15024,13 +15024,13 @@
       <c r="CN10" s="6"/>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>8</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>0</v>
       </c>
       <c r="E11" s="6"/>
@@ -15123,13 +15123,13 @@
       <c r="CN11" s="6"/>
     </row>
     <row r="12" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>6</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>9</v>
       </c>
       <c r="E12" s="6"/>
@@ -15222,13 +15222,13 @@
       <c r="CN12" s="6"/>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>6</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>10</v>
       </c>
       <c r="E13" s="6"/>
@@ -15421,8 +15421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX16" sqref="A16:AX16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI1" sqref="J1:BI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
